--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2083219.332304956</v>
+        <v>2052026.450823896</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802538</v>
+        <v>6165603.330802531</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7659300.705873917</v>
+        <v>7659300.705873918</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>216.7041817177364</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>165.6778517147295</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -746,13 +746,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>133.1166995264114</v>
+        <v>109.3085121226096</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -794,10 +794,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.96816892577746</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>207.8629945260559</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>91.78420982392223</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -916,7 +916,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.86127392282639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>49.84759605946888</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>14.5038758621203</v>
       </c>
       <c r="W7" t="n">
-        <v>15.5982500108433</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>81.85686012880936</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -1195,10 +1195,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>204.8109166686195</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1220,10 +1220,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>41.05372336166544</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>7.431982368242488</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>12.62136652179725</v>
       </c>
       <c r="F10" t="n">
-        <v>125.2040305762914</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.5609956070679</v>
@@ -1390,7 +1390,7 @@
         <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.73916953180446</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>61.48517439625483</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>296.4364774252083</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.80540818138467</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>140.32293915197</v>
@@ -1581,10 +1581,10 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>180.7575722449144</v>
       </c>
       <c r="U13" t="n">
-        <v>64.44569772400781</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H14" t="n">
-        <v>202.8844295126152</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>162.5199334079693</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>47.34362796447566</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138467</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>208.5868485504649</v>
+        <v>2.910207715571886</v>
       </c>
       <c r="T16" t="n">
         <v>230.1151168515673</v>
       </c>
       <c r="U16" t="n">
-        <v>17.10206975953216</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>170.9561476586357</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>37.71330369423611</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>227.4282440646973</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>198.0147401453922</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>327.9581651837377</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>206.4754155722356</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>55.39665207531016</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0592210434877</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.2556384040709</v>
       </c>
       <c r="I22" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>226.7113802178423</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>10.99668610603783</v>
       </c>
       <c r="G23" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054946</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T23" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
-        <v>183.8689310300951</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I24" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S24" t="n">
         <v>139.8667397074436</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>120.7553771892716</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>128.1187675158261</v>
       </c>
       <c r="Y25" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,16 +2563,16 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>63.57068660902897</v>
       </c>
       <c r="G26" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H26" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V26" t="n">
-        <v>13.83561185495342</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I27" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S27" t="n">
         <v>139.8667397074436</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
-        <v>238.2919263925322</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>108.3928778233542</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>201.2579380735955</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
         <v>358.909580840975</v>
@@ -2860,7 +2860,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>274.9014111121708</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I30" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S30" t="n">
         <v>139.8667397074436</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.34728551612864</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>61.40811179598408</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>390.8378626949542</v>
@@ -3043,13 +3043,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>267.3751223357078</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>218.9044556052687</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3128,7 +3128,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I33" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S33" t="n">
         <v>139.8667397074436</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>113.4106508168785</v>
+        <v>133.0505273527739</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.5394259901313</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>17.64651753167263</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S35" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>226.5580375515529</v>
       </c>
       <c r="X35" t="n">
         <v>378.2098390737216</v>
@@ -3365,7 +3365,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I36" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S36" t="n">
         <v>139.8667397074436</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.290259532294</v>
+        <v>261.4531786236396</v>
       </c>
       <c r="V37" t="n">
-        <v>238.2919263925322</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
         <v>369.0957251250487</v>
@@ -3517,13 +3517,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H38" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.64651753167263</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T38" t="n">
-        <v>107.5803481239579</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>60.02565896726416</v>
       </c>
       <c r="X38" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I39" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S39" t="n">
         <v>139.8667397074436</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>129.867098242384</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
-        <v>43.09135455671316</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.5897082655113</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -3751,13 +3751,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H41" t="n">
-        <v>317.7406176577446</v>
+        <v>257.1418194361414</v>
       </c>
       <c r="I41" t="n">
         <v>126.8477381573318</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167263</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S41" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
         <v>389.6064368699203</v>
@@ -3839,7 +3839,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I42" t="n">
-        <v>46.55860261786524</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.06466113568249</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S42" t="n">
         <v>139.8667397074436</v>
@@ -3900,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>138.3967807705621</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>101.564957801428</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>228.6477529452049</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>40.6596458544363</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -3991,13 +3991,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>68.81230213303496</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -4076,7 +4076,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I45" t="n">
-        <v>46.55860261786525</v>
+        <v>46.55860261786523</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.0646611356825</v>
+        <v>21.06466113568248</v>
       </c>
       <c r="S45" t="n">
         <v>139.8667397074436</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>42.10529573218009</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>108.6282362620256</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.5499906244464</v>
+        <v>455.9089368934352</v>
       </c>
       <c r="C2" t="n">
-        <v>231.5499906244464</v>
+        <v>455.9089368934352</v>
       </c>
       <c r="D2" t="n">
-        <v>231.5499906244464</v>
+        <v>455.9089368934352</v>
       </c>
       <c r="E2" t="n">
-        <v>231.5499906244464</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F2" t="n">
-        <v>221.4392039750208</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3756214696128</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3756214696128</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
@@ -4360,22 +4360,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V2" t="n">
-        <v>1007.121986527115</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W2" t="n">
-        <v>1007.121986527115</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="X2" t="n">
-        <v>625.0918460486084</v>
+        <v>849.4507923175972</v>
       </c>
       <c r="Y2" t="n">
-        <v>231.5499906244464</v>
+        <v>455.9089368934352</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>908.7703193130553</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="C3" t="n">
-        <v>747.06664655401</v>
+        <v>459.5956743819146</v>
       </c>
       <c r="D3" t="n">
-        <v>608.2280095442221</v>
+        <v>320.7570373721267</v>
       </c>
       <c r="E3" t="n">
-        <v>473.7666968912813</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F3" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G3" t="n">
         <v>210.3443988644402</v>
@@ -4409,25 +4409,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1406.916935000113</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="O3" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4442,19 +4442,19 @@
         <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1699.943945333632</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1699.943945333632</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1458.628076566943</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>1260.711088444737</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>1068.189762094316</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574.0835013471317</v>
+        <v>364.1208806137419</v>
       </c>
       <c r="C4" t="n">
-        <v>514.5196943513969</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="D4" t="n">
-        <v>514.5196943513969</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="E4" t="n">
-        <v>514.5196943513969</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F4" t="n">
-        <v>514.5196943513969</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>345.5999457192469</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>186.2273004985207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
         <v>42.02425610119923</v>
@@ -4530,10 +4530,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="X4" t="n">
-        <v>574.0835013471317</v>
+        <v>364.1208806137419</v>
       </c>
       <c r="Y4" t="n">
-        <v>574.0835013471317</v>
+        <v>364.1208806137419</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1599.886427633425</v>
+        <v>1429.302003668149</v>
       </c>
       <c r="C5" t="n">
-        <v>1599.886427633425</v>
+        <v>1429.302003668149</v>
       </c>
       <c r="D5" t="n">
-        <v>1599.886427633425</v>
+        <v>1056.478038895373</v>
       </c>
       <c r="E5" t="n">
-        <v>1205.100707739532</v>
+        <v>1056.478038895373</v>
       </c>
       <c r="F5" t="n">
-        <v>790.949517049702</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G5" t="n">
-        <v>374.84553050389</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>1876.853858790972</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>1621.968522504967</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V5" t="n">
-        <v>1621.968522504967</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W5" t="n">
-        <v>1621.968522504967</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X5" t="n">
-        <v>1621.968522504967</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="Y5" t="n">
-        <v>1599.886427633425</v>
+        <v>1823.345543186168</v>
       </c>
     </row>
     <row r="6">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759.6333438441981</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C6" t="n">
         <v>759.6333438441981</v>
@@ -4649,13 +4649,13 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M6" t="n">
-        <v>737.8796590913968</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N6" t="n">
         <v>1249.145305214519</v>
@@ -4670,28 +4670,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R6" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.277942036871</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U6" t="n">
-        <v>1619.783149635181</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V6" t="n">
-        <v>1391.387527083515</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W6" t="n">
-        <v>1150.071658316825</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X6" t="n">
-        <v>952.1546701946193</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y6" t="n">
-        <v>759.6333438441981</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
         <v>42.02425610119923</v>
@@ -4749,28 +4749,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>210.8519573651974</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>210.8519573651974</v>
+        <v>559.4331216884243</v>
       </c>
       <c r="W7" t="n">
-        <v>195.0961492734365</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X7" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="C8" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>237.0158240472368</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>226.9050373978112</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J8" t="n">
         <v>114.0228003740049</v>
@@ -4816,40 +4816,40 @@
         <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P8" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q8" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2018.529107960154</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="T8" t="n">
-        <v>1794.170161691165</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="U8" t="n">
-        <v>1539.284825405159</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V8" t="n">
-        <v>1202.3055513011</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="W8" t="n">
-        <v>839.7706211587015</v>
+        <v>1231.480932796104</v>
       </c>
       <c r="X8" t="n">
-        <v>457.7404806801948</v>
+        <v>1024.601218989418</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.19862525603281</v>
+        <v>631.0593635652559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>639.6152086099888</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>477.9115358509436</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="F9" t="n">
         <v>339.0728988411556</v>
@@ -4880,55 +4880,55 @@
         <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J9" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K9" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q9" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2059.744397623936</v>
       </c>
       <c r="S9" t="n">
-        <v>1948.413318072701</v>
+        <v>1906.944910636676</v>
       </c>
       <c r="T9" t="n">
-        <v>1948.413318072701</v>
+        <v>1718.259806802661</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1499.765014400971</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1271.369391849305</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1030.053523082615</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>832.13653496041</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>639.6152086099888</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.4929738550289</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C10" t="n">
-        <v>168.4929738550289</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D10" t="n">
-        <v>168.4929738550289</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E10" t="n">
-        <v>168.4929738550289</v>
+        <v>522.7973049282982</v>
       </c>
       <c r="F10" t="n">
-        <v>42.02425610119923</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="G10" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H10" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I10" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J10" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K10" t="n">
         <v>75.62844384584264</v>
@@ -4983,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.0483425394087</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1367.536682796252</v>
+        <v>1572.161679707474</v>
       </c>
       <c r="C11" t="n">
-        <v>1367.536682796252</v>
+        <v>1190.227921040281</v>
       </c>
       <c r="D11" t="n">
-        <v>1367.536682796252</v>
+        <v>1190.227921040281</v>
       </c>
       <c r="E11" t="n">
-        <v>1367.536682796252</v>
+        <v>795.442201146388</v>
       </c>
       <c r="F11" t="n">
-        <v>953.3854921064224</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G11" t="n">
-        <v>537.6673147255457</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H11" t="n">
-        <v>208.797208433249</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321461</v>
@@ -5065,28 +5065,28 @@
         <v>2542.69587366073</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.69587366073</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.69587366073</v>
+        <v>2476.292672113453</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.69587366073</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.69587366073</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="V11" t="n">
-        <v>2205.716599556672</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="W11" t="n">
-        <v>2143.610362792778</v>
+        <v>2253.622605463969</v>
       </c>
       <c r="X11" t="n">
-        <v>1761.580222314271</v>
+        <v>1871.592464985462</v>
       </c>
       <c r="Y11" t="n">
-        <v>1761.580222314271</v>
+        <v>1572.161679707474</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>50.85391747321461</v>
       </c>
       <c r="K12" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715419</v>
       </c>
       <c r="L12" t="n">
-        <v>722.7650590219087</v>
+        <v>477.8506509775799</v>
       </c>
       <c r="M12" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N12" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P12" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.69587366073</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="C13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="D13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="E13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="F13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="G13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="H13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321461</v>
@@ -5220,31 +5220,31 @@
         <v>724.8700896544215</v>
       </c>
       <c r="Q13" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R13" t="n">
-        <v>559.0838802267905</v>
+        <v>583.129747076674</v>
       </c>
       <c r="S13" t="n">
-        <v>348.3900938121794</v>
+        <v>372.4359606620629</v>
       </c>
       <c r="T13" t="n">
-        <v>115.9505818408993</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="U13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="V13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="W13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="X13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.85391747321461</v>
+        <v>189.8525543540686</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1010.545408097644</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="C14" t="n">
-        <v>628.6116494304508</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="D14" t="n">
-        <v>255.7876846576744</v>
+        <v>1762.322402690145</v>
       </c>
       <c r="E14" t="n">
-        <v>255.7876846576744</v>
+        <v>1367.536682796252</v>
       </c>
       <c r="F14" t="n">
-        <v>255.7876846576744</v>
+        <v>953.3854921064224</v>
       </c>
       <c r="G14" t="n">
-        <v>255.7876846576744</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H14" t="n">
-        <v>50.85391747321461</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I14" t="n">
         <v>50.85391747321461</v>
@@ -5308,22 +5308,22 @@
         <v>2542.69587366073</v>
       </c>
       <c r="T14" t="n">
-        <v>2542.69587366073</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U14" t="n">
-        <v>2542.69587366073</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V14" t="n">
-        <v>2542.69587366073</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="W14" t="n">
-        <v>2180.160943518331</v>
+        <v>2155.864258114307</v>
       </c>
       <c r="X14" t="n">
-        <v>1798.130803039825</v>
+        <v>2155.864258114307</v>
       </c>
       <c r="Y14" t="n">
-        <v>1404.588947615663</v>
+        <v>1762.322402690145</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J15" t="n">
-        <v>50.85391747321461</v>
+        <v>130.2226992162549</v>
       </c>
       <c r="K15" t="n">
-        <v>251.6973914949266</v>
+        <v>392.3832078845233</v>
       </c>
       <c r="L15" t="n">
-        <v>661.4480243753524</v>
+        <v>477.8506509775804</v>
       </c>
       <c r="M15" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.146827758681</v>
       </c>
       <c r="N15" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O15" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P15" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q15" t="n">
         <v>2542.695873660731</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="C16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="D16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="E16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="F16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="G16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="H16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I16" t="n">
-        <v>98.6757639019779</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="J16" t="n">
         <v>50.85391747321461</v>
@@ -5457,31 +5457,31 @@
         <v>724.8700896544215</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.824222804538</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="R16" t="n">
-        <v>559.0838802267905</v>
+        <v>724.8700896544215</v>
       </c>
       <c r="S16" t="n">
-        <v>348.3900938121794</v>
+        <v>721.9304859013185</v>
       </c>
       <c r="T16" t="n">
-        <v>115.9505818408993</v>
+        <v>489.4909739300384</v>
       </c>
       <c r="U16" t="n">
-        <v>98.6757639019779</v>
+        <v>489.4909739300384</v>
       </c>
       <c r="V16" t="n">
-        <v>98.6757639019779</v>
+        <v>489.4909739300384</v>
       </c>
       <c r="W16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="X16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.6757639019779</v>
+        <v>203.3345724474375</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1200.397360807077</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="C17" t="n">
-        <v>818.4636021398842</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="D17" t="n">
-        <v>445.6396373671078</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="E17" t="n">
-        <v>50.85391747321461</v>
+        <v>1209.593391836218</v>
       </c>
       <c r="F17" t="n">
-        <v>50.85391747321461</v>
+        <v>795.442201146388</v>
       </c>
       <c r="G17" t="n">
-        <v>50.85391747321461</v>
+        <v>379.7240237655113</v>
       </c>
       <c r="H17" t="n">
         <v>50.85391747321461</v>
@@ -5542,25 +5542,25 @@
         <v>2542.69587366073</v>
       </c>
       <c r="S17" t="n">
-        <v>2370.012896227765</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="T17" t="n">
-        <v>2370.012896227765</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="U17" t="n">
-        <v>2370.012896227765</v>
+        <v>2320.025807011246</v>
       </c>
       <c r="V17" t="n">
-        <v>2370.012896227765</v>
+        <v>1983.046532907187</v>
       </c>
       <c r="W17" t="n">
-        <v>2370.012896227765</v>
+        <v>1620.511602764788</v>
       </c>
       <c r="X17" t="n">
-        <v>1987.982755749258</v>
+        <v>1582.417356608994</v>
       </c>
       <c r="Y17" t="n">
-        <v>1594.440900325096</v>
+        <v>1582.417356608994</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>50.85391747321461</v>
       </c>
       <c r="K18" t="n">
-        <v>313.014426141483</v>
+        <v>68.10001809715385</v>
       </c>
       <c r="L18" t="n">
-        <v>722.7650590219087</v>
+        <v>477.8506509775796</v>
       </c>
       <c r="M18" t="n">
-        <v>1259.061235803009</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N18" t="n">
-        <v>1822.946479591694</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
-        <v>2263.283082167001</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P18" t="n">
-        <v>2542.69587366073</v>
+        <v>2359.098500262958</v>
       </c>
       <c r="Q18" t="n">
         <v>2542.69587366073</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="C19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="D19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="E19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="F19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="G19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="H19" t="n">
-        <v>50.85391747321461</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="I19" t="n">
-        <v>50.85391747321461</v>
+        <v>98.67576390197789</v>
       </c>
       <c r="J19" t="n">
         <v>50.85391747321461</v>
@@ -5703,22 +5703,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T19" t="n">
-        <v>495.1445905991718</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U19" t="n">
-        <v>495.1445905991718</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="V19" t="n">
-        <v>234.4092861575944</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="W19" t="n">
-        <v>234.4092861575944</v>
+        <v>437.6892898185816</v>
       </c>
       <c r="X19" t="n">
-        <v>234.4092861575944</v>
+        <v>237.6744007828319</v>
       </c>
       <c r="Y19" t="n">
-        <v>234.4092861575944</v>
+        <v>237.6744007828319</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>465.0051081630443</v>
+        <v>1149.734476062852</v>
       </c>
       <c r="C20" t="n">
-        <v>465.0051081630443</v>
+        <v>818.4636021398842</v>
       </c>
       <c r="D20" t="n">
-        <v>465.0051081630443</v>
+        <v>445.6396373671078</v>
       </c>
       <c r="E20" t="n">
-        <v>465.0051081630443</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="F20" t="n">
         <v>50.85391747321461</v>
@@ -5785,19 +5785,19 @@
         <v>2542.69587366073</v>
       </c>
       <c r="U20" t="n">
-        <v>2334.134847830189</v>
+        <v>2287.841402107919</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.155573726131</v>
+        <v>2287.841402107919</v>
       </c>
       <c r="W20" t="n">
-        <v>1634.620643583732</v>
+        <v>1925.30647196552</v>
       </c>
       <c r="X20" t="n">
-        <v>1252.590503105225</v>
+        <v>1543.276331487014</v>
       </c>
       <c r="Y20" t="n">
-        <v>859.0486476810634</v>
+        <v>1149.734476062852</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>50.85391747321461</v>
       </c>
       <c r="K21" t="n">
-        <v>251.6973914949266</v>
+        <v>68.10001809715465</v>
       </c>
       <c r="L21" t="n">
-        <v>661.4480243753524</v>
+        <v>477.8506509775804</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.744201156453</v>
+        <v>1014.146827758681</v>
       </c>
       <c r="N21" t="n">
-        <v>1761.629444945137</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.966047520445</v>
+        <v>2018.368674122672</v>
       </c>
       <c r="P21" t="n">
-        <v>2542.695873660731</v>
+        <v>2359.098500262959</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.695873660731</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.8700896544215</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="C22" t="n">
-        <v>724.8700896544215</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="D22" t="n">
-        <v>724.8700896544215</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="E22" t="n">
-        <v>668.9138754369365</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="F22" t="n">
-        <v>516.4332204627136</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="G22" t="n">
-        <v>347.6865325399988</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="H22" t="n">
-        <v>189.8525543540686</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="I22" t="n">
         <v>50.85391747321461</v>
@@ -5943,19 +5943,19 @@
         <v>724.8700896544215</v>
       </c>
       <c r="U22" t="n">
-        <v>724.8700896544215</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="V22" t="n">
-        <v>724.8700896544215</v>
+        <v>437.6892898185815</v>
       </c>
       <c r="W22" t="n">
-        <v>724.8700896544215</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="X22" t="n">
-        <v>724.8700896544215</v>
+        <v>208.6878956591448</v>
       </c>
       <c r="Y22" t="n">
-        <v>724.8700896544215</v>
+        <v>208.6878956591448</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1674.36819010771</v>
+        <v>2093.227875222085</v>
       </c>
       <c r="C23" t="n">
-        <v>1292.434431440517</v>
+        <v>1711.294116554892</v>
       </c>
       <c r="D23" t="n">
-        <v>1292.434431440517</v>
+        <v>1338.470151782116</v>
       </c>
       <c r="E23" t="n">
-        <v>897.6487115466239</v>
+        <v>943.6844318882227</v>
       </c>
       <c r="F23" t="n">
-        <v>483.4975208567942</v>
+        <v>932.5766681447501</v>
       </c>
       <c r="G23" t="n">
-        <v>68.55268534786579</v>
+        <v>517.6318326358218</v>
       </c>
       <c r="H23" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I23" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J23" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805683</v>
       </c>
       <c r="K23" t="n">
         <v>621.6294415950433</v>
@@ -5998,7 +5998,7 @@
         <v>1148.797379660662</v>
       </c>
       <c r="M23" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N23" t="n">
         <v>2322.568598257194</v>
@@ -6013,28 +6013,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R23" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S23" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276629</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3047.534683671598</v>
       </c>
       <c r="U23" t="n">
-        <v>2843.983725528398</v>
+        <v>2792.742079468543</v>
       </c>
       <c r="V23" t="n">
-        <v>2843.983725528398</v>
+        <v>2455.762805364484</v>
       </c>
       <c r="W23" t="n">
-        <v>2843.983725528398</v>
+        <v>2093.227875222085</v>
       </c>
       <c r="X23" t="n">
-        <v>2461.953585049891</v>
+        <v>2093.227875222085</v>
       </c>
       <c r="Y23" t="n">
-        <v>2068.411729625729</v>
+        <v>2093.227875222085</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G24" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H24" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I24" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J24" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K24" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="L24" t="n">
-        <v>566.35713863456</v>
+        <v>89.08561422900813</v>
       </c>
       <c r="M24" t="n">
-        <v>1205.407970599382</v>
+        <v>646.9485681965866</v>
       </c>
       <c r="N24" t="n">
-        <v>1874.767479538482</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O24" t="n">
-        <v>2411.592428656135</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P24" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q24" t="n">
         <v>2506.667490147568</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="C25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="D25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="E25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="F25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="G25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J25" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K25" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L25" t="n">
-        <v>337.7359848975267</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M25" t="n">
-        <v>535.6128834448182</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N25" t="n">
-        <v>732.0191690905294</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O25" t="n">
-        <v>902.5136098413567</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P25" t="n">
         <v>1027.116881758995</v>
@@ -6174,25 +6174,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S25" t="n">
-        <v>827.3708054186045</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T25" t="n">
-        <v>705.3956769445928</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U25" t="n">
-        <v>705.3956769445928</v>
+        <v>744.8572877526765</v>
       </c>
       <c r="V25" t="n">
-        <v>705.3956769445928</v>
+        <v>484.1219833110991</v>
       </c>
       <c r="W25" t="n">
-        <v>705.3956769445928</v>
+        <v>197.9655818284982</v>
       </c>
       <c r="X25" t="n">
-        <v>474.1432128399686</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="Y25" t="n">
-        <v>252.1080540322456</v>
+        <v>68.5526853478658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1973.3565538328</v>
+        <v>1697.253778947251</v>
       </c>
       <c r="C26" t="n">
-        <v>1591.422795165607</v>
+        <v>1315.320020280059</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.59883039283</v>
+        <v>942.4960555072823</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.59883039283</v>
+        <v>547.7103356133891</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4476397030008</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G26" t="n">
-        <v>389.5028041940724</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H26" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I26" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J26" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K26" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L26" t="n">
-        <v>1148.797379660662</v>
+        <v>1148.797379660663</v>
       </c>
       <c r="M26" t="n">
         <v>1741.522943506783</v>
       </c>
       <c r="N26" t="n">
-        <v>2322.568598257194</v>
+        <v>2322.568598257195</v>
       </c>
       <c r="O26" t="n">
         <v>2818.990544201361</v>
@@ -6250,28 +6250,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R26" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S26" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T26" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U26" t="n">
-        <v>2774.917314285035</v>
+        <v>3172.841663190235</v>
       </c>
       <c r="V26" t="n">
-        <v>2760.941948774981</v>
+        <v>2835.862389086176</v>
       </c>
       <c r="W26" t="n">
-        <v>2760.941948774981</v>
+        <v>2473.327458943777</v>
       </c>
       <c r="X26" t="n">
-        <v>2760.941948774981</v>
+        <v>2091.297318465271</v>
       </c>
       <c r="Y26" t="n">
-        <v>2367.400093350819</v>
+        <v>2091.297318465271</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G27" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H27" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I27" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J27" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K27" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L27" t="n">
-        <v>566.35713863456</v>
+        <v>894.0035074360997</v>
       </c>
       <c r="M27" t="n">
-        <v>1205.407970599382</v>
+        <v>1533.054339400921</v>
       </c>
       <c r="N27" t="n">
-        <v>1874.767479538482</v>
+        <v>1585.500212559868</v>
       </c>
       <c r="O27" t="n">
-        <v>2411.592428656135</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P27" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q27" t="n">
         <v>2506.667490147568</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2464.167786673031</v>
+        <v>220.561699586547</v>
       </c>
       <c r="C28" t="n">
-        <v>2464.167786673031</v>
+        <v>220.561699586547</v>
       </c>
       <c r="D28" t="n">
-        <v>2464.167786673031</v>
+        <v>220.561699586547</v>
       </c>
       <c r="E28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="F28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="G28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J28" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K28" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L28" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M28" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N28" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O28" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P28" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q28" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R28" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>3222.985906743769</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T28" t="n">
-        <v>2992.028580536492</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U28" t="n">
-        <v>2704.866702221043</v>
+        <v>744.8572877526765</v>
       </c>
       <c r="V28" t="n">
-        <v>2464.167786673031</v>
+        <v>744.8572877526765</v>
       </c>
       <c r="W28" t="n">
-        <v>2464.167786673031</v>
+        <v>635.369532375551</v>
       </c>
       <c r="X28" t="n">
-        <v>2464.167786673031</v>
+        <v>404.1170682709268</v>
       </c>
       <c r="Y28" t="n">
-        <v>2464.167786673031</v>
+        <v>404.1170682709268</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.659036646695</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C29" t="n">
-        <v>1495.725277979502</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D29" t="n">
         <v>1292.434431440517</v>
@@ -6454,25 +6454,25 @@
         <v>483.4975208567942</v>
       </c>
       <c r="G29" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H29" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I29" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J29" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K29" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L29" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M29" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N29" t="n">
         <v>2322.568598257194</v>
@@ -6487,28 +6487,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R29" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S29" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T29" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U29" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V29" t="n">
-        <v>3409.809502209782</v>
+        <v>3090.654993289232</v>
       </c>
       <c r="W29" t="n">
-        <v>3047.274572067383</v>
+        <v>2728.120063146833</v>
       </c>
       <c r="X29" t="n">
-        <v>2665.244431588876</v>
+        <v>2346.089922668326</v>
       </c>
       <c r="Y29" t="n">
-        <v>2271.702576164714</v>
+        <v>2068.411729625729</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G30" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H30" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J30" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K30" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L30" t="n">
-        <v>566.35713863456</v>
+        <v>624.8113720119181</v>
       </c>
       <c r="M30" t="n">
-        <v>1205.407970599382</v>
+        <v>1263.86220397674</v>
       </c>
       <c r="N30" t="n">
-        <v>1874.767479538482</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O30" t="n">
-        <v>2411.592428656135</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P30" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q30" t="n">
         <v>2506.667490147568</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3022.043739901187</v>
+        <v>283.6529742736224</v>
       </c>
       <c r="C31" t="n">
-        <v>2852.427770362867</v>
+        <v>283.6529742736224</v>
       </c>
       <c r="D31" t="n">
-        <v>2699.35587719063</v>
+        <v>130.5810811013851</v>
       </c>
       <c r="E31" t="n">
-        <v>2547.346862951948</v>
+        <v>130.5810811013851</v>
       </c>
       <c r="F31" t="n">
-        <v>2464.167786673031</v>
+        <v>130.5810811013851</v>
       </c>
       <c r="G31" t="n">
-        <v>2464.167786673031</v>
+        <v>130.5810811013851</v>
       </c>
       <c r="H31" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I31" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J31" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K31" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L31" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M31" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N31" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O31" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P31" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q31" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R31" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S31" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T31" t="n">
-        <v>3427.63426739329</v>
+        <v>801.0618398608474</v>
       </c>
       <c r="U31" t="n">
-        <v>3427.63426739329</v>
+        <v>801.0618398608474</v>
       </c>
       <c r="V31" t="n">
-        <v>3427.63426739329</v>
+        <v>801.0618398608474</v>
       </c>
       <c r="W31" t="n">
-        <v>3427.63426739329</v>
+        <v>514.9054383782466</v>
       </c>
       <c r="X31" t="n">
-        <v>3427.63426739329</v>
+        <v>283.6529742736224</v>
       </c>
       <c r="Y31" t="n">
-        <v>3205.599108585567</v>
+        <v>283.6529742736224</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2030.452228960487</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C32" t="n">
-        <v>1648.518470293294</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D32" t="n">
-        <v>1275.694505520518</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E32" t="n">
-        <v>880.9087856266244</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F32" t="n">
-        <v>466.7575949367948</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6817137896151</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H32" t="n">
-        <v>196.6817137896151</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I32" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J32" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805681</v>
       </c>
       <c r="K32" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950433</v>
       </c>
       <c r="L32" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M32" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N32" t="n">
-        <v>2322.568598257194</v>
+        <v>2322.568598257195</v>
       </c>
       <c r="O32" t="n">
         <v>2818.990544201361</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U32" t="n">
-        <v>3155.016898006726</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V32" t="n">
-        <v>2818.037623902668</v>
+        <v>3206.518655670797</v>
       </c>
       <c r="W32" t="n">
-        <v>2818.037623902668</v>
+        <v>2843.983725528398</v>
       </c>
       <c r="X32" t="n">
-        <v>2818.037623902668</v>
+        <v>2461.953585049891</v>
       </c>
       <c r="Y32" t="n">
-        <v>2424.495768478506</v>
+        <v>2068.411729625729</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G33" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H33" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J33" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K33" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L33" t="n">
-        <v>566.35713863456</v>
+        <v>624.8113720119181</v>
       </c>
       <c r="M33" t="n">
-        <v>882.312801287401</v>
+        <v>1263.86220397674</v>
       </c>
       <c r="N33" t="n">
-        <v>1551.672310226501</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P33" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q33" t="n">
         <v>2506.667490147568</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.55268534786579</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="C34" t="n">
-        <v>68.55268534786579</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="D34" t="n">
-        <v>68.55268534786579</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="E34" t="n">
-        <v>68.55268534786579</v>
+        <v>389.4331337042923</v>
       </c>
       <c r="F34" t="n">
-        <v>68.55268534786579</v>
+        <v>236.9524787300695</v>
       </c>
       <c r="G34" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H34" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I34" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J34" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K34" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L34" t="n">
-        <v>337.7359848975267</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M34" t="n">
-        <v>535.6128834448182</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N34" t="n">
-        <v>732.0191690905294</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O34" t="n">
-        <v>902.5136098413567</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P34" t="n">
         <v>1027.116881758995</v>
@@ -6882,28 +6882,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>905.8764634664541</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>701.2281028169339</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T34" t="n">
-        <v>470.2707766096562</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U34" t="n">
-        <v>183.1088982942077</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V34" t="n">
-        <v>68.55268534786579</v>
+        <v>897.6246939946161</v>
       </c>
       <c r="W34" t="n">
-        <v>68.55268534786579</v>
+        <v>611.4682925120153</v>
       </c>
       <c r="X34" t="n">
-        <v>68.55268534786579</v>
+        <v>611.4682925120153</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.55268534786579</v>
+        <v>389.4331337042923</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>912.4175525297148</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C35" t="n">
-        <v>912.4175525297148</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D35" t="n">
-        <v>912.4175525297148</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E35" t="n">
-        <v>517.6318326358218</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F35" t="n">
-        <v>517.6318326358218</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G35" t="n">
-        <v>517.6318326358218</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H35" t="n">
-        <v>196.6817137896151</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I35" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J35" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K35" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L35" t="n">
-        <v>1148.797379660662</v>
+        <v>1148.797379660663</v>
       </c>
       <c r="M35" t="n">
         <v>1741.522943506783</v>
       </c>
       <c r="N35" t="n">
-        <v>2322.568598257194</v>
+        <v>2322.568598257195</v>
       </c>
       <c r="O35" t="n">
         <v>2818.990544201361</v>
@@ -6961,28 +6961,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R35" t="n">
-        <v>3409.809502209782</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="S35" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.70991848809</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="U35" t="n">
-        <v>2774.917314285035</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.938040180976</v>
+        <v>3072.830228105724</v>
       </c>
       <c r="W35" t="n">
-        <v>2075.403110038577</v>
+        <v>2843.983725528398</v>
       </c>
       <c r="X35" t="n">
-        <v>1693.37296956007</v>
+        <v>2461.953585049891</v>
       </c>
       <c r="Y35" t="n">
-        <v>1299.831114135908</v>
+        <v>2068.411729625729</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G36" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H36" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J36" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K36" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2619693225794</v>
+        <v>624.8113720119181</v>
       </c>
       <c r="M36" t="n">
-        <v>882.312801287401</v>
+        <v>1263.86220397674</v>
       </c>
       <c r="N36" t="n">
-        <v>1551.672310226501</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P36" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q36" t="n">
         <v>2506.667490147568</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="C37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="D37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="E37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="F37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="G37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J37" t="n">
-        <v>2464.167786673031</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K37" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L37" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M37" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N37" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O37" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P37" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q37" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R37" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S37" t="n">
-        <v>3222.985906743769</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T37" t="n">
-        <v>2992.028580536492</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U37" t="n">
-        <v>2704.866702221043</v>
+        <v>767.9250462462669</v>
       </c>
       <c r="V37" t="n">
-        <v>2464.167786673031</v>
+        <v>507.1897418046896</v>
       </c>
       <c r="W37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="X37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="Y37" t="n">
-        <v>2464.167786673031</v>
+        <v>221.0333403220887</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1571.263679550572</v>
+        <v>2175.321183322235</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.263679550572</v>
+        <v>1793.387424655043</v>
       </c>
       <c r="D38" t="n">
-        <v>1198.439714777795</v>
+        <v>1420.563459882266</v>
       </c>
       <c r="E38" t="n">
-        <v>803.6539948839021</v>
+        <v>1025.777739988373</v>
       </c>
       <c r="F38" t="n">
-        <v>389.5028041940724</v>
+        <v>611.6265492985435</v>
       </c>
       <c r="G38" t="n">
-        <v>389.5028041940724</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="H38" t="n">
-        <v>68.55268534786579</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I38" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J38" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950432</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N38" t="n">
         <v>2322.568598257194</v>
@@ -7198,28 +7198,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R38" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S38" t="n">
-        <v>3409.809502209782</v>
+        <v>3266.819446276629</v>
       </c>
       <c r="T38" t="n">
-        <v>3301.142483902754</v>
+        <v>3266.819446276629</v>
       </c>
       <c r="U38" t="n">
-        <v>3046.349879699698</v>
+        <v>3012.026842073574</v>
       </c>
       <c r="V38" t="n">
-        <v>2709.37060559564</v>
+        <v>3012.026842073574</v>
       </c>
       <c r="W38" t="n">
-        <v>2346.835675453241</v>
+        <v>2951.394863318762</v>
       </c>
       <c r="X38" t="n">
-        <v>1964.805534974734</v>
+        <v>2569.364722840255</v>
       </c>
       <c r="Y38" t="n">
-        <v>1571.263679550572</v>
+        <v>2569.364722840255</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G39" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H39" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J39" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K39" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L39" t="n">
-        <v>566.35713863456</v>
+        <v>624.8113720119181</v>
       </c>
       <c r="M39" t="n">
-        <v>882.312801287401</v>
+        <v>1263.86220397674</v>
       </c>
       <c r="N39" t="n">
-        <v>1551.672310226501</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P39" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q39" t="n">
         <v>2506.667490147568</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>280.4790994944262</v>
+        <v>827.370805418605</v>
       </c>
       <c r="C40" t="n">
-        <v>280.4790994944262</v>
+        <v>827.370805418605</v>
       </c>
       <c r="D40" t="n">
-        <v>280.4790994944262</v>
+        <v>696.1919183050858</v>
       </c>
       <c r="E40" t="n">
-        <v>280.4790994944262</v>
+        <v>544.1829040664046</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4790994944262</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G40" t="n">
-        <v>112.0793061122225</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H40" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I40" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J40" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K40" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L40" t="n">
-        <v>337.7359848975267</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M40" t="n">
-        <v>535.6128834448182</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N40" t="n">
-        <v>732.0191690905294</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O40" t="n">
-        <v>902.5136098413567</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P40" t="n">
         <v>1027.116881758995</v>
@@ -7359,25 +7359,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S40" t="n">
-        <v>827.3708054186045</v>
+        <v>827.370805418605</v>
       </c>
       <c r="T40" t="n">
-        <v>827.3708054186045</v>
+        <v>827.370805418605</v>
       </c>
       <c r="U40" t="n">
-        <v>827.3708054186045</v>
+        <v>827.370805418605</v>
       </c>
       <c r="V40" t="n">
-        <v>566.635500977027</v>
+        <v>827.370805418605</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4790994944262</v>
+        <v>827.370805418605</v>
       </c>
       <c r="X40" t="n">
-        <v>280.4790994944262</v>
+        <v>827.370805418605</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.4790994944262</v>
+        <v>827.370805418605</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2496.271302168442</v>
+        <v>2020.909204184064</v>
       </c>
       <c r="C41" t="n">
-        <v>2114.337543501249</v>
+        <v>1638.975445516871</v>
       </c>
       <c r="D41" t="n">
-        <v>1741.513578728473</v>
+        <v>1266.151480744095</v>
       </c>
       <c r="E41" t="n">
-        <v>1346.72785883458</v>
+        <v>871.3657608502015</v>
       </c>
       <c r="F41" t="n">
-        <v>932.5766681447501</v>
+        <v>871.3657608502015</v>
       </c>
       <c r="G41" t="n">
-        <v>517.6318326358218</v>
+        <v>456.4209253412731</v>
       </c>
       <c r="H41" t="n">
         <v>196.6817137896151</v>
       </c>
       <c r="I41" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805683</v>
       </c>
       <c r="K41" t="n">
-        <v>621.6294415950429</v>
+        <v>621.6294415950435</v>
       </c>
       <c r="L41" t="n">
-        <v>1148.797379660662</v>
+        <v>1148.797379660663</v>
       </c>
       <c r="M41" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N41" t="n">
-        <v>2322.568598257194</v>
+        <v>2322.568598257195</v>
       </c>
       <c r="O41" t="n">
         <v>2818.990544201361</v>
@@ -7435,28 +7435,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R41" t="n">
-        <v>3409.809502209782</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="S41" t="n">
-        <v>3248.994681093121</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="T41" t="n">
-        <v>3248.994681093121</v>
+        <v>3190.524739604752</v>
       </c>
       <c r="U41" t="n">
-        <v>3248.994681093121</v>
+        <v>3190.524739604752</v>
       </c>
       <c r="V41" t="n">
-        <v>3248.994681093121</v>
+        <v>3190.524739604752</v>
       </c>
       <c r="W41" t="n">
-        <v>3248.994681093121</v>
+        <v>3190.524739604752</v>
       </c>
       <c r="X41" t="n">
-        <v>3248.994681093121</v>
+        <v>2808.494599126245</v>
       </c>
       <c r="Y41" t="n">
-        <v>2855.452825668959</v>
+        <v>2414.952743702083</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>209.5296033666725</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H42" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I42" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J42" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K42" t="n">
-        <v>68.55268534786579</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L42" t="n">
-        <v>566.35713863456</v>
+        <v>894.0035074360997</v>
       </c>
       <c r="M42" t="n">
-        <v>1205.407970599382</v>
+        <v>1533.054339400921</v>
       </c>
       <c r="N42" t="n">
-        <v>1551.672310226501</v>
+        <v>1585.500212559868</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.497259344154</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P42" t="n">
-        <v>2506.667490147568</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q42" t="n">
         <v>2506.667490147568</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.0618398608469</v>
+        <v>513.8999615453988</v>
       </c>
       <c r="C43" t="n">
-        <v>631.4458703225272</v>
+        <v>513.8999615453988</v>
       </c>
       <c r="D43" t="n">
-        <v>478.3739771502899</v>
+        <v>360.8280683731615</v>
       </c>
       <c r="E43" t="n">
-        <v>478.3739771502899</v>
+        <v>221.0333403220887</v>
       </c>
       <c r="F43" t="n">
-        <v>325.893322176067</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="G43" t="n">
-        <v>325.893322176067</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H43" t="n">
-        <v>171.1435518139547</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I43" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J43" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K43" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L43" t="n">
-        <v>337.7359848975267</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M43" t="n">
-        <v>535.6128834448182</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N43" t="n">
-        <v>732.0191690905294</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O43" t="n">
-        <v>902.5136098413567</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P43" t="n">
         <v>1027.116881758995</v>
@@ -7599,22 +7599,22 @@
         <v>1032.019166068125</v>
       </c>
       <c r="T43" t="n">
-        <v>801.0618398608469</v>
+        <v>801.0618398608474</v>
       </c>
       <c r="U43" t="n">
-        <v>801.0618398608469</v>
+        <v>513.8999615453988</v>
       </c>
       <c r="V43" t="n">
-        <v>801.0618398608469</v>
+        <v>513.8999615453988</v>
       </c>
       <c r="W43" t="n">
-        <v>801.0618398608469</v>
+        <v>513.8999615453988</v>
       </c>
       <c r="X43" t="n">
-        <v>801.0618398608469</v>
+        <v>513.8999615453988</v>
       </c>
       <c r="Y43" t="n">
-        <v>801.0618398608469</v>
+        <v>513.8999615453988</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1701.754695263512</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C44" t="n">
-        <v>1319.82093659632</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D44" t="n">
-        <v>946.9969718235432</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E44" t="n">
-        <v>552.21125192965</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F44" t="n">
-        <v>138.0600612398203</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G44" t="n">
-        <v>138.0600612398203</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H44" t="n">
-        <v>138.0600612398203</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I44" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J44" t="n">
-        <v>236.9749331805676</v>
+        <v>236.9749331805681</v>
       </c>
       <c r="K44" t="n">
-        <v>621.6294415950427</v>
+        <v>621.6294415950433</v>
       </c>
       <c r="L44" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M44" t="n">
-        <v>1741.522943506782</v>
+        <v>1741.522943506783</v>
       </c>
       <c r="N44" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O44" t="n">
-        <v>2818.99054420136</v>
+        <v>2818.990544201361</v>
       </c>
       <c r="P44" t="n">
         <v>3210.517730076022</v>
@@ -7672,28 +7672,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R44" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="S44" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209783</v>
       </c>
       <c r="T44" t="n">
-        <v>3208.349504788259</v>
+        <v>3190.524739604752</v>
       </c>
       <c r="U44" t="n">
-        <v>3208.349504788259</v>
+        <v>3190.524739604752</v>
       </c>
       <c r="V44" t="n">
-        <v>2871.3702306842</v>
+        <v>2853.545465500693</v>
       </c>
       <c r="W44" t="n">
-        <v>2871.3702306842</v>
+        <v>2491.010535358294</v>
       </c>
       <c r="X44" t="n">
-        <v>2489.340090205693</v>
+        <v>2108.980394879787</v>
       </c>
       <c r="Y44" t="n">
-        <v>2095.798234781531</v>
+        <v>1715.438539455625</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>115.581576881063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J45" t="n">
-        <v>186.2361291527469</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K45" t="n">
-        <v>513.8824979542864</v>
+        <v>396.1990541494054</v>
       </c>
       <c r="L45" t="n">
-        <v>1011.686951240981</v>
+        <v>624.8113720119181</v>
       </c>
       <c r="M45" t="n">
-        <v>1051.375366159552</v>
+        <v>1263.86220397674</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.734875098653</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O45" t="n">
-        <v>2257.559824216306</v>
+        <v>1853.13302625334</v>
       </c>
       <c r="P45" t="n">
         <v>2271.303257056754</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>221.6245785201031</v>
+        <v>263.0923013362238</v>
       </c>
       <c r="C46" t="n">
-        <v>221.6245785201031</v>
+        <v>263.0923013362238</v>
       </c>
       <c r="D46" t="n">
-        <v>68.55268534786579</v>
+        <v>220.561699586547</v>
       </c>
       <c r="E46" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="F46" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="G46" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="H46" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="I46" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="J46" t="n">
-        <v>68.55268534786579</v>
+        <v>68.5526853478658</v>
       </c>
       <c r="K46" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L46" t="n">
-        <v>337.7359848975267</v>
+        <v>337.7359848975268</v>
       </c>
       <c r="M46" t="n">
-        <v>535.6128834448182</v>
+        <v>535.6128834448184</v>
       </c>
       <c r="N46" t="n">
-        <v>732.0191690905294</v>
+        <v>732.0191690905297</v>
       </c>
       <c r="O46" t="n">
-        <v>902.5136098413567</v>
+        <v>902.5136098413569</v>
       </c>
       <c r="P46" t="n">
         <v>1027.116881758995</v>
@@ -7833,25 +7833,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S46" t="n">
-        <v>922.2936748943614</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T46" t="n">
-        <v>691.3363486870837</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U46" t="n">
-        <v>691.3363486870837</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V46" t="n">
-        <v>691.3363486870837</v>
+        <v>771.2838616265476</v>
       </c>
       <c r="W46" t="n">
-        <v>405.1799472044829</v>
+        <v>485.1274601439467</v>
       </c>
       <c r="X46" t="n">
-        <v>405.1799472044829</v>
+        <v>485.1274601439467</v>
       </c>
       <c r="Y46" t="n">
-        <v>405.1799472044829</v>
+        <v>263.0923013362238</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>253.0836423644577</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>623.1450866466196</v>
+        <v>570.0697896776412</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8297,16 +8297,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M6" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>623.1450866466196</v>
+        <v>405.7168621786896</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8540,7 +8540,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8549,10 +8549,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>184.9927927018795</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8771,7 +8771,7 @@
         <v>83.74785933339989</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248474</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>352.0652005990326</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,13 +9005,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>83.74785933339989</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>281.868409483467</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>154.5336713314983</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9245,7 +9245,7 @@
         <v>83.74785933339987</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>96.41651716248437</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9260,10 +9260,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>352.0652005990326</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.64858173562192</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9482,7 +9482,7 @@
         <v>83.74785933339989</v>
       </c>
       <c r="K21" t="n">
-        <v>281.868409483467</v>
+        <v>96.41651716248521</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.64858173562195</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K24" t="n">
-        <v>12.84888003398906</v>
+        <v>12.84888003398902</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>523.4086253020268</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>87.64284235113004</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,10 +9953,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K27" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9965,16 +9965,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>240.1097671565348</v>
       </c>
       <c r="P27" t="n">
-        <v>87.64284235113004</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,28 +10190,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K30" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>210.1812009912833</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>87.64284235113004</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K33" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>210.1812009912833</v>
       </c>
       <c r="M33" t="n">
-        <v>279.0578259942114</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,19 +10664,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K36" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>155.7336920137084</v>
+        <v>210.1812009912833</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10685,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,19 +10901,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K39" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>210.1812009912833</v>
       </c>
       <c r="M39" t="n">
-        <v>279.0578259942114</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>45.04618048305563</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K42" t="n">
-        <v>12.84888003398906</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11150,16 +11150,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>296.7863297658309</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>240.1097671565348</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.35882446992306</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11375,25 +11375,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>45.04618048305561</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>210.1812009912833</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>5.489682097610013</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180446</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>297.4244064447201</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>93.16995944471205</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>47.34362796447566</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>49.35754460665294</v>
       </c>
       <c r="U13" t="n">
-        <v>219.8632941134738</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>122.6969757167585</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>252.305926837283</v>
@@ -23557,10 +23557,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>196.3896474330056</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.0592210434877</v>
@@ -23676,7 +23676,7 @@
         <v>137.6086505120454</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>47.34362796447566</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138467</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.676640834893</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>267.2069220779494</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>156.363858050434</v>
@@ -23782,25 +23782,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S17" t="n">
-        <v>5.696827874809514</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>340.4965353794855</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23910,10 +23910,10 @@
         <v>156.2556384040709</v>
       </c>
       <c r="I19" t="n">
-        <v>137.6086505120454</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>47.34362796447565</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T19" t="n">
-        <v>2.686872786870083</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
-        <v>228.939939463578</v>
+        <v>30.92519931818578</v>
       </c>
       <c r="Y19" t="n">
         <v>219.8148072196457</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>50.15625589678297</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>411.5609956070679</v>
@@ -24025,10 +24025,10 @@
         <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
-        <v>45.83051126504745</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>95.09227202098418</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J22" t="n">
         <v>47.34362796447566</v>
@@ -24183,13 +24183,13 @@
         <v>230.1151168515673</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>56.58345724993256</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>399.0129926768935</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>68.3757471309296</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24381,13 +24381,13 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H25" t="n">
-        <v>153.2022726584912</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I25" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J25" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T25" t="n">
-        <v>107.8923757559333</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>100.8211719477519</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>346.4389921739024</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I26" t="n">
         <v>126.8477381573318</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>319.7738695080646</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
@@ -24609,7 +24609,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -24618,13 +24618,13 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H28" t="n">
-        <v>153.2022726584912</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J28" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>19.83602500462942</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>174.9019596444206</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>219.8148072196457</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>167.8377870514532</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S29" t="n">
-        <v>159.2066729054946</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T29" t="n">
         <v>217.0919149789806</v>
@@ -24739,7 +24739,7 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>114.7050257577495</v>
       </c>
     </row>
     <row r="30">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F31" t="n">
-        <v>68.60856290835201</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2022726584912</v>
+        <v>91.79416086250706</v>
       </c>
       <c r="I31" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J31" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>202.601877043025</v>
       </c>
       <c r="T31" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.290259532294</v>
@@ -24900,13 +24900,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>143.4202648181313</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S32" t="n">
-        <v>159.2066729054946</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T32" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>114.7050257577494</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25086,19 +25086,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.2022726584912</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I34" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J34" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V34" t="n">
-        <v>144.7173005802832</v>
+        <v>125.0774240443878</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.563678132707594</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>132.351543289422</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25323,19 +25323,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H37" t="n">
-        <v>153.2022726584912</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I37" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J37" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>22.8370809086544</v>
       </c>
       <c r="V37" t="n">
-        <v>19.83602500462942</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I38" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>17.6465175316726</v>
       </c>
       <c r="S38" t="n">
-        <v>159.2066729054946</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>109.5115668550226</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>298.8839218737108</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -25554,25 +25554,25 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>21.67407599813092</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>110.110918101778</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J40" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>284.290259532294</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34.51339585732762</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>60.5987982216032</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>252.2446781610247</v>
@@ -25693,7 +25693,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>12.09214332573228</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I43" t="n">
-        <v>25.71594845051753</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J43" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>349.4434582684027</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>317.7406176577446</v>
       </c>
       <c r="I44" t="n">
-        <v>58.03543602429684</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.64651753167264</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>159.2066729054946</v>
+        <v>159.2066729054945</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>109.4358785083348</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>150.9558484244806</v>
@@ -26040,13 +26040,13 @@
         <v>166.7157954483816</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>153.2022726584911</v>
       </c>
       <c r="I46" t="n">
-        <v>127.2809062519456</v>
+        <v>127.2809062519455</v>
       </c>
       <c r="J46" t="n">
-        <v>23.06343839047421</v>
+        <v>23.06343839047419</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>93.97364078099939</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U46" t="n">
         <v>284.290259532294</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552831.4317882933</v>
+        <v>552831.4317882934</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>552831.4317882933</v>
+        <v>552831.4317882934</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>641440.8586607833</v>
+        <v>641440.8586607834</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>641440.8586607836</v>
+        <v>641440.8586607837</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641440.8586607834</v>
+        <v>641440.8586607836</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>641440.8586607834</v>
+        <v>641440.8586607837</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537336.8423459274</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="C2" t="n">
         <v>537336.8423459271</v>
       </c>
       <c r="D2" t="n">
-        <v>537336.8423459269</v>
+        <v>537336.8423459273</v>
       </c>
       <c r="E2" t="n">
-        <v>353444.0843231675</v>
+        <v>353444.0843231673</v>
       </c>
       <c r="F2" t="n">
         <v>353444.0843231675</v>
@@ -26334,10 +26334,10 @@
         <v>353444.0843231675</v>
       </c>
       <c r="I2" t="n">
-        <v>413487.1047792182</v>
+        <v>413487.1047792184</v>
       </c>
       <c r="J2" t="n">
-        <v>413487.1047792183</v>
+        <v>413487.1047792184</v>
       </c>
       <c r="K2" t="n">
         <v>413487.1047792183</v>
@@ -26349,7 +26349,7 @@
         <v>413487.1047792183</v>
       </c>
       <c r="N2" t="n">
-        <v>413487.1047792184</v>
+        <v>413487.1047792185</v>
       </c>
       <c r="O2" t="n">
         <v>413487.1047792184</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>109285.8666493011</v>
+        <v>109285.866649301</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202188.2862928658</v>
+        <v>202188.2862928659</v>
       </c>
       <c r="J3" t="n">
         <v>137442.4307917771</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27504.83665689651</v>
+        <v>27504.83665689648</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>208183.1070948236</v>
       </c>
       <c r="C4" t="n">
-        <v>208183.1070948236</v>
+        <v>208183.1070948235</v>
       </c>
       <c r="D4" t="n">
-        <v>208183.1070948236</v>
+        <v>208183.1070948235</v>
       </c>
       <c r="E4" t="n">
         <v>23150.42819261375</v>
       </c>
       <c r="F4" t="n">
-        <v>23150.42819261375</v>
+        <v>23150.42819261376</v>
       </c>
       <c r="G4" t="n">
         <v>23150.42819261375</v>
@@ -26438,13 +26438,13 @@
         <v>23150.42819261375</v>
       </c>
       <c r="I4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="J4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="K4" t="n">
-        <v>21806.99263921604</v>
+        <v>21806.99263921603</v>
       </c>
       <c r="L4" t="n">
         <v>21806.99263921603</v>
@@ -26490,28 +26490,28 @@
         <v>40720.20246230467</v>
       </c>
       <c r="I5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="J5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="K5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="L5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="M5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="N5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="O5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
       <c r="P5" t="n">
-        <v>58322.96928678589</v>
+        <v>58322.9692867859</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87546.51589666505</v>
+        <v>87546.51589666493</v>
       </c>
       <c r="C6" t="n">
         <v>263587.7006141922</v>
       </c>
       <c r="D6" t="n">
-        <v>263587.7006141919</v>
+        <v>263587.7006141923</v>
       </c>
       <c r="E6" t="n">
-        <v>180287.587018948</v>
+        <v>173719.988518135</v>
       </c>
       <c r="F6" t="n">
-        <v>289573.4536682491</v>
+        <v>283005.8551674362</v>
       </c>
       <c r="G6" t="n">
-        <v>289573.453668249</v>
+        <v>283005.8551674362</v>
       </c>
       <c r="H6" t="n">
-        <v>289573.453668249</v>
+        <v>283005.8551674362</v>
       </c>
       <c r="I6" t="n">
-        <v>131168.8565603505</v>
+        <v>126745.6516472539</v>
       </c>
       <c r="J6" t="n">
-        <v>195914.7120614393</v>
+        <v>191491.5071483426</v>
       </c>
       <c r="K6" t="n">
-        <v>333357.1428532164</v>
+        <v>328933.9379401196</v>
       </c>
       <c r="L6" t="n">
-        <v>333357.1428532164</v>
+        <v>328933.9379401196</v>
       </c>
       <c r="M6" t="n">
-        <v>305852.3061963199</v>
+        <v>301429.1012832232</v>
       </c>
       <c r="N6" t="n">
-        <v>333357.1428532165</v>
+        <v>328933.9379401198</v>
       </c>
       <c r="O6" t="n">
-        <v>333357.1428532165</v>
+        <v>328933.9379401197</v>
       </c>
       <c r="P6" t="n">
-        <v>333357.1428532165</v>
+        <v>328933.9379401197</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="F3" t="n">
         <v>95.01032947988861</v>
@@ -26758,28 +26758,28 @@
         <v>95.01032947988861</v>
       </c>
       <c r="I3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="J3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="K3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="L3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="M3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="N3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205457</v>
       </c>
       <c r="P3" t="n">
-        <v>285.4554322205455</v>
+        <v>285.4554322205457</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>525.3032012649903</v>
       </c>
       <c r="D4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="E4" t="n">
         <v>635.6739684151826</v>
@@ -26810,28 +26810,28 @@
         <v>635.6739684151826</v>
       </c>
       <c r="I4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="J4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="K4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="L4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="M4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="N4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="O4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
       <c r="P4" t="n">
-        <v>856.9085668483224</v>
+        <v>856.9085668483226</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988863</v>
+        <v>95.01032947988861</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>190.4451027406569</v>
+        <v>190.4451027406571</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501921</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>221.2345984331398</v>
+        <v>221.23459843314</v>
       </c>
       <c r="J4" t="n">
         <v>525.3032012649903</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501921</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>110.3707671501923</v>
+        <v>110.3707671501921</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>174.1336809772178</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>5.411175088562487</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,13 +27466,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.44103031728608</v>
+        <v>36.24921772108787</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
-        <v>108.951640917159</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>151.5411742405149</v>
@@ -27548,16 +27548,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27602,7 +27602,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>21.07694493752206</v>
       </c>
       <c r="Y4" t="n">
         <v>219.8148072196457</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>318.2254689590092</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.7451629470939</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>136.9506567362058</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
         <v>150.4889240962943</v>
@@ -27821,10 +27821,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
         <v>230.8471636524779</v>
@@ -27833,13 +27833,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>243.6240755350413</v>
       </c>
       <c r="W7" t="n">
-        <v>267.6965874569316</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27873,7 +27873,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.4998254871402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>173.3989224051021</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,10 +27940,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>18.13270285433823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>208.8778621094304</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
@@ -28019,16 +28019,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>137.8675575744971</v>
       </c>
       <c r="F10" t="n">
-        <v>25.75181784818928</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28079,7 +28079,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859842</v>
+        <v>0.3819510732859841</v>
       </c>
       <c r="H11" t="n">
         <v>3.911656429290086</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285792</v>
+        <v>14.72516875285791</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630633</v>
+        <v>32.41761990630632</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850204</v>
+        <v>48.58560883850203</v>
       </c>
       <c r="L11" t="n">
         <v>60.27474399757799</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712761</v>
+        <v>67.0672663971276</v>
       </c>
       <c r="N11" t="n">
         <v>68.15248488410141</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911391</v>
+        <v>64.35445889911389</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736617</v>
+        <v>54.92504177736616</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531185</v>
+        <v>41.24641896531184</v>
       </c>
       <c r="R11" t="n">
         <v>23.99273410730072</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504372</v>
+        <v>8.703710082504371</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309396</v>
@@ -31837,7 +31837,7 @@
         <v>1.973705146365234</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689866</v>
+        <v>7.036142324689865</v>
       </c>
       <c r="J12" t="n">
         <v>19.3077123332668</v>
@@ -31846,31 +31846,31 @@
         <v>32.99995566472698</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869705</v>
+        <v>44.37251283869704</v>
       </c>
       <c r="M12" t="n">
-        <v>51.7806295665393</v>
+        <v>51.78062956653929</v>
       </c>
       <c r="N12" t="n">
-        <v>53.15110875309355</v>
+        <v>53.15110875309354</v>
       </c>
       <c r="O12" t="n">
         <v>48.62288059712753</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806973</v>
+        <v>39.02414834806972</v>
       </c>
       <c r="Q12" t="n">
         <v>26.08660970927055</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488023</v>
+        <v>12.68836060488022</v>
       </c>
       <c r="S12" t="n">
         <v>3.795931559880453</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133737</v>
+        <v>0.8237216301133736</v>
       </c>
       <c r="U12" t="n">
         <v>0.01344485794526726</v>
@@ -31916,7 +31916,7 @@
         <v>1.523280364448051</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302814</v>
+        <v>5.152363441302813</v>
       </c>
       <c r="J13" t="n">
         <v>12.11303823549334</v>
@@ -31931,7 +31931,7 @@
         <v>26.85677231511015</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729453</v>
+        <v>26.21817829729452</v>
       </c>
       <c r="O13" t="n">
         <v>24.21673119267719</v>
@@ -31943,13 +31943,13 @@
         <v>14.34655975146318</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795557</v>
+        <v>7.703624419795556</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884368</v>
+        <v>2.985816419884367</v>
       </c>
       <c r="T13" t="n">
-        <v>0.732046800910617</v>
+        <v>0.7320468009106169</v>
       </c>
       <c r="U13" t="n">
         <v>0.009345278309497251</v>
@@ -32700,31 +32700,31 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H23" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I23" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J23" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K23" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L23" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M23" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N23" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O23" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P23" t="n">
         <v>165.0204943622301</v>
@@ -32733,16 +32733,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R23" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S23" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T23" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H24" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I24" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J24" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K24" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L24" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M24" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N24" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O24" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P24" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R24" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S24" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T24" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H25" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I25" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J25" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K25" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L25" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M25" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N25" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O25" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P25" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R25" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S25" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T25" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,31 +32937,31 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H26" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I26" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J26" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K26" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L26" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M26" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N26" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O26" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P26" t="n">
         <v>165.0204943622301</v>
@@ -32970,16 +32970,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R26" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S26" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T26" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H27" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I27" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J27" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K27" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L27" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M27" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N27" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O27" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P27" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R27" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S27" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T27" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H28" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I28" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J28" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K28" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L28" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M28" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N28" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O28" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P28" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R28" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S28" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T28" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,31 +33174,31 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H29" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I29" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J29" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K29" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L29" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M29" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N29" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O29" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P29" t="n">
         <v>165.0204943622301</v>
@@ -33207,16 +33207,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R29" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S29" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T29" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H30" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I30" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J30" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K30" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L30" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M30" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N30" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O30" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P30" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R30" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S30" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T30" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H31" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I31" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J31" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K31" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L31" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M31" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N31" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O31" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P31" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R31" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S31" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T31" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,31 +33411,31 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H32" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I32" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J32" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K32" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L32" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M32" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N32" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O32" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P32" t="n">
         <v>165.0204943622301</v>
@@ -33444,16 +33444,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R32" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S32" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T32" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H33" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I33" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J33" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K33" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L33" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M33" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N33" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O33" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P33" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R33" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S33" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T33" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H34" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I34" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J34" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K34" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L34" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M34" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N34" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O34" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P34" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R34" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S34" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T34" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,31 +33648,31 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H35" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I35" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J35" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K35" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L35" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M35" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N35" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O35" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P35" t="n">
         <v>165.0204943622301</v>
@@ -33681,16 +33681,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R35" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S35" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T35" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H36" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I36" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J36" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K36" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L36" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M36" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N36" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O36" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P36" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R36" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S36" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T36" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H37" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I37" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J37" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K37" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L37" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M37" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N37" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O37" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P37" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R37" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S37" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T37" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,31 +33885,31 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H38" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I38" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J38" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K38" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L38" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M38" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N38" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O38" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P38" t="n">
         <v>165.0204943622301</v>
@@ -33918,16 +33918,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R38" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S38" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T38" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H39" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I39" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J39" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K39" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L39" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M39" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N39" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O39" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P39" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R39" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S39" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T39" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H40" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I40" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J40" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K40" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L40" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M40" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N40" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O40" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P40" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R40" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S40" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T40" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,31 +34122,31 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H41" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I41" t="n">
-        <v>44.24128864596014</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J41" t="n">
-        <v>97.39768036353179</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K41" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L41" t="n">
         <v>181.0934999804774</v>
       </c>
       <c r="M41" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N41" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O41" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P41" t="n">
         <v>165.0204943622301</v>
@@ -34155,16 +34155,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R41" t="n">
-        <v>72.08538610743256</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S41" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T41" t="n">
-        <v>5.023441827318344</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0918047621211804</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6139984768517396</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H42" t="n">
-        <v>5.929932658015486</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I42" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J42" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K42" t="n">
-        <v>99.14728913267761</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L42" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M42" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N42" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O42" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P42" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.37636697496943</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R42" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S42" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T42" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04039463663498288</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H43" t="n">
-        <v>4.576646110027766</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I43" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J43" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K43" t="n">
-        <v>59.80525284882903</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L43" t="n">
-        <v>76.53013341860331</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M43" t="n">
-        <v>80.69029537342404</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N43" t="n">
-        <v>78.77166050112207</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O43" t="n">
-        <v>72.75837803549251</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P43" t="n">
-        <v>62.257361807576</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.10377026530238</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R43" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S43" t="n">
-        <v>8.970787927324354</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T43" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.147559526514755</v>
+        <v>1.147559526514756</v>
       </c>
       <c r="H44" t="n">
         <v>11.75244400091924</v>
       </c>
       <c r="I44" t="n">
-        <v>44.24128864596013</v>
+        <v>44.24128864596016</v>
       </c>
       <c r="J44" t="n">
-        <v>97.39768036353178</v>
+        <v>97.39768036353183</v>
       </c>
       <c r="K44" t="n">
-        <v>145.9738751209014</v>
+        <v>145.9738751209015</v>
       </c>
       <c r="L44" t="n">
-        <v>181.0934999804773</v>
+        <v>181.0934999804774</v>
       </c>
       <c r="M44" t="n">
-        <v>201.5014117101341</v>
+        <v>201.5014117101342</v>
       </c>
       <c r="N44" t="n">
-        <v>204.7619152148442</v>
+        <v>204.7619152148443</v>
       </c>
       <c r="O44" t="n">
-        <v>193.3508701730631</v>
+        <v>193.3508701730632</v>
       </c>
       <c r="P44" t="n">
-        <v>165.02049436223</v>
+        <v>165.0204943622301</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.9235188189203</v>
+        <v>123.9235188189204</v>
       </c>
       <c r="R44" t="n">
-        <v>72.08538610743254</v>
+        <v>72.08538610743258</v>
       </c>
       <c r="S44" t="n">
-        <v>26.15001271045501</v>
+        <v>26.15001271045502</v>
       </c>
       <c r="T44" t="n">
-        <v>5.023441827318342</v>
+        <v>5.023441827318345</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09180476212118037</v>
+        <v>0.09180476212118042</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6139984768517394</v>
+        <v>0.6139984768517398</v>
       </c>
       <c r="H45" t="n">
-        <v>5.929932658015484</v>
+        <v>5.929932658015487</v>
       </c>
       <c r="I45" t="n">
-        <v>21.13985983897436</v>
+        <v>21.13985983897438</v>
       </c>
       <c r="J45" t="n">
-        <v>58.00939118361106</v>
+        <v>58.00939118361109</v>
       </c>
       <c r="K45" t="n">
-        <v>99.14728913267759</v>
+        <v>99.14728913267766</v>
       </c>
       <c r="L45" t="n">
         <v>133.3157657743218</v>
       </c>
       <c r="M45" t="n">
-        <v>155.5732105601973</v>
+        <v>155.5732105601974</v>
       </c>
       <c r="N45" t="n">
-        <v>159.6907705211899</v>
+        <v>159.69077052119</v>
       </c>
       <c r="O45" t="n">
-        <v>146.0858569025277</v>
+        <v>146.0858569025278</v>
       </c>
       <c r="P45" t="n">
-        <v>117.2467793209256</v>
+        <v>117.2467793209257</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.37636697496941</v>
+        <v>78.37636697496946</v>
       </c>
       <c r="R45" t="n">
-        <v>38.12176508032117</v>
+        <v>38.12176508032119</v>
       </c>
       <c r="S45" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T45" t="n">
-        <v>2.474844737836615</v>
+        <v>2.474844737836617</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04039463663498287</v>
+        <v>0.0403946366349829</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5147556974468853</v>
+        <v>0.5147556974468855</v>
       </c>
       <c r="H46" t="n">
-        <v>4.576646110027765</v>
+        <v>4.576646110027768</v>
       </c>
       <c r="I46" t="n">
-        <v>15.4801077014027</v>
+        <v>15.48010770140271</v>
       </c>
       <c r="J46" t="n">
-        <v>36.39322780949479</v>
+        <v>36.39322780949481</v>
       </c>
       <c r="K46" t="n">
-        <v>59.80525284882902</v>
+        <v>59.80525284882906</v>
       </c>
       <c r="L46" t="n">
-        <v>76.5301334186033</v>
+        <v>76.53013341860334</v>
       </c>
       <c r="M46" t="n">
-        <v>80.69029537342402</v>
+        <v>80.69029537342406</v>
       </c>
       <c r="N46" t="n">
-        <v>78.77166050112206</v>
+        <v>78.7716605011221</v>
       </c>
       <c r="O46" t="n">
-        <v>72.7583780354925</v>
+        <v>72.75837803549254</v>
       </c>
       <c r="P46" t="n">
-        <v>62.25736180757599</v>
+        <v>62.25736180757603</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.10377026530237</v>
+        <v>43.10377026530239</v>
       </c>
       <c r="R46" t="n">
-        <v>23.14528799611176</v>
+        <v>23.14528799611178</v>
       </c>
       <c r="S46" t="n">
-        <v>8.970787927324352</v>
+        <v>8.970787927324357</v>
       </c>
       <c r="T46" t="n">
-        <v>2.199410707273055</v>
+        <v>2.199410707273056</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02807758349710287</v>
+        <v>0.02807758349710288</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>140.5082087933099</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>516.4299455789112</v>
+        <v>463.3546486099329</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M6" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>516.4299455789112</v>
+        <v>299.0017211109813</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35260,7 +35260,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35269,10 +35269,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773617</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>450.3053724474506</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605623</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491371</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054503</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798994</v>
+        <v>541.7133098798993</v>
       </c>
       <c r="N12" t="n">
         <v>569.5810543320048</v>
@@ -35506,10 +35506,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>282.235142922959</v>
+        <v>344.1715415558447</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>80.1704866091316</v>
       </c>
       <c r="K15" t="n">
-        <v>202.8721959815273</v>
+        <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620462</v>
+        <v>86.33075059904753</v>
       </c>
       <c r="M15" t="n">
         <v>541.7133098798993</v>
@@ -35746,7 +35746,7 @@
         <v>344.1715415558447</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.8085946144125</v>
+        <v>17.42030366054469</v>
       </c>
       <c r="L18" t="n">
         <v>413.8895281620462</v>
@@ -35980,10 +35980,10 @@
         <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
-        <v>282.235142922959</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>202.8721959815273</v>
+        <v>17.42030366054549</v>
       </c>
       <c r="L21" t="n">
         <v>413.8895281620462</v>
@@ -36220,7 +36220,7 @@
         <v>344.1715415558447</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>185.4518923209819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K23" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L23" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M23" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N23" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O23" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P23" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q23" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>502.8327810976709</v>
+        <v>20.74033220317406</v>
       </c>
       <c r="M24" t="n">
-        <v>645.5058908735573</v>
+        <v>563.4979333005844</v>
       </c>
       <c r="N24" t="n">
         <v>676.1207161001012</v>
       </c>
       <c r="O24" t="n">
-        <v>542.2474233511649</v>
+        <v>542.247423351165</v>
       </c>
       <c r="P24" t="n">
-        <v>96.03541564791232</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M25" t="n">
         <v>199.8756550982743</v>
@@ -36530,13 +36530,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O25" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P25" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K26" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L26" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M26" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N26" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O26" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P26" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q26" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L27" t="n">
-        <v>502.8327810976709</v>
+        <v>502.832781097671</v>
       </c>
       <c r="M27" t="n">
-        <v>645.5058908735573</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N27" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O27" t="n">
-        <v>542.2474233511649</v>
+        <v>270.3361754479515</v>
       </c>
       <c r="P27" t="n">
-        <v>96.03541564791232</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L28" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M28" t="n">
         <v>199.8756550982743</v>
@@ -36767,13 +36767,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O28" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P28" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K29" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L29" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M29" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N29" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O29" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P29" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q29" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L30" t="n">
-        <v>502.8327810976709</v>
+        <v>230.9215331944574</v>
       </c>
       <c r="M30" t="n">
-        <v>645.5058908735573</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N30" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O30" t="n">
-        <v>542.2474233511649</v>
+        <v>542.247423351165</v>
       </c>
       <c r="P30" t="n">
-        <v>96.03541564791232</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L31" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M31" t="n">
         <v>199.8756550982743</v>
@@ -37004,13 +37004,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O31" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P31" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K32" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L32" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M32" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N32" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O32" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P32" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q32" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L33" t="n">
-        <v>502.8327810976709</v>
+        <v>230.9215331944574</v>
       </c>
       <c r="M33" t="n">
-        <v>319.1471339927688</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N33" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O33" t="n">
-        <v>542.2474233511649</v>
+        <v>542.247423351165</v>
       </c>
       <c r="P33" t="n">
-        <v>422.3941725287006</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L34" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M34" t="n">
         <v>199.8756550982743</v>
@@ -37241,13 +37241,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O34" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P34" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K35" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L35" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M35" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N35" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O35" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P35" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q35" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4740242168824</v>
+        <v>230.9215331944574</v>
       </c>
       <c r="M36" t="n">
-        <v>645.5058908735573</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N36" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O36" t="n">
-        <v>542.2474233511649</v>
+        <v>542.247423351165</v>
       </c>
       <c r="P36" t="n">
-        <v>422.3941725287006</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L37" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M37" t="n">
         <v>199.8756550982743</v>
@@ -37478,13 +37478,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O37" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P37" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K38" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L38" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M38" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N38" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O38" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P38" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q38" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L39" t="n">
-        <v>502.8327810976709</v>
+        <v>230.9215331944574</v>
       </c>
       <c r="M39" t="n">
-        <v>319.1471339927688</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N39" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O39" t="n">
-        <v>542.2474233511649</v>
+        <v>542.247423351165</v>
       </c>
       <c r="P39" t="n">
-        <v>422.3941725287006</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L40" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M40" t="n">
         <v>199.8756550982743</v>
@@ -37715,13 +37715,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O40" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P40" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K41" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L41" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M41" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N41" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O41" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P41" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q41" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L42" t="n">
-        <v>502.8327810976709</v>
+        <v>502.832781097671</v>
       </c>
       <c r="M42" t="n">
-        <v>645.5058908735573</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N42" t="n">
-        <v>349.7619592193125</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O42" t="n">
-        <v>542.2474233511649</v>
+        <v>270.3361754479515</v>
       </c>
       <c r="P42" t="n">
-        <v>422.3941725287006</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L43" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M43" t="n">
         <v>199.8756550982743</v>
@@ -37952,13 +37952,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O43" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P43" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.951802332454527</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>170.1234826592951</v>
       </c>
       <c r="K44" t="n">
-        <v>388.5399074893688</v>
+        <v>388.5399074893689</v>
       </c>
       <c r="L44" t="n">
-        <v>532.4928667329483</v>
+        <v>532.4928667329484</v>
       </c>
       <c r="M44" t="n">
-        <v>598.7126907536573</v>
+        <v>598.7126907536574</v>
       </c>
       <c r="N44" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O44" t="n">
-        <v>501.4363090345115</v>
+        <v>501.4363090345116</v>
       </c>
       <c r="P44" t="n">
-        <v>395.482005934001</v>
+        <v>395.4820059340011</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538063</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>330.9559280823631</v>
+        <v>330.9559280823632</v>
       </c>
       <c r="L45" t="n">
-        <v>502.8327810976709</v>
+        <v>230.9215331944574</v>
       </c>
       <c r="M45" t="n">
-        <v>40.08930799855739</v>
+        <v>645.5058908735574</v>
       </c>
       <c r="N45" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348167</v>
       </c>
       <c r="O45" t="n">
-        <v>542.2474233511649</v>
+        <v>542.247423351165</v>
       </c>
       <c r="P45" t="n">
-        <v>13.88225539439227</v>
+        <v>422.3941725287007</v>
       </c>
       <c r="Q45" t="n">
         <v>237.7416495866808</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>93.74887683331733</v>
+        <v>93.74887683331735</v>
       </c>
       <c r="L46" t="n">
-        <v>178.1534459441179</v>
+        <v>178.153445944118</v>
       </c>
       <c r="M46" t="n">
         <v>199.8756550982743</v>
@@ -38189,13 +38189,13 @@
         <v>198.3901875209204</v>
       </c>
       <c r="O46" t="n">
-        <v>172.2166068190174</v>
+        <v>172.2166068190175</v>
       </c>
       <c r="P46" t="n">
         <v>125.861890825897</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.95180233245452</v>
+        <v>4.951802332454541</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
